--- a/TRF(TransFix)-DAS Tech.xlsx
+++ b/TRF(TransFix)-DAS Tech.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="754" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Proj Dtls Gen" sheetId="1" r:id="rId1"/>
     <sheet name="Features" sheetId="2" r:id="rId2"/>
+    <sheet name="User Stories-BookAppointment" sheetId="3" r:id="rId3"/>
+    <sheet name="User Stories-Courses" sheetId="4" r:id="rId4"/>
+    <sheet name="User Stories-View All Courses" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Project Name : TransFix (TRF)</t>
   </si>
@@ -116,13 +119,444 @@
   </si>
   <si>
     <t>Major Features (Common of "DAS" Tech Team)</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria (Acs) 3-5 maximum</t>
+  </si>
+  <si>
+    <t>Feature (Refined)</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Aji</t>
+  </si>
+  <si>
+    <t>Derick</t>
+  </si>
+  <si>
+    <t>Shuhana</t>
+  </si>
+  <si>
+    <t>Booking An Appointment With Transfotech Academy</t>
+  </si>
+  <si>
+    <t>A new user can book an appointment by providing the required informations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user in home page</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user clicks on Book an Appointment Link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The Book an Appointment Window should Open</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Given</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user selects the Book an Appointment Window</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user provides the required and valid informations such as &lt;Name&gt;, &lt;PhoneNumber&gt;,&lt;Email&gt;,&lt;AppointmentSubject&gt;,&lt;Date&gt; and &lt;Message&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user clicks the Send Message Link</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The message should be sent and the Confirmation Message(Thank you for your message.It has been sent.) should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user provides the required and valid informations such as &lt;Name&gt;, &lt;PhoneNumber&gt;,&lt;Email&gt;,&lt;AppointmentSubject&gt; and &lt;Message&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user clicks on the calendar icon in the date field</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>And</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user chooses the date of appointment</t>
+    </r>
+  </si>
+  <si>
+    <t>List of Courses Offered by Transfotech Academy</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user clicks on Courses Link</t>
+    </r>
+  </si>
+  <si>
+    <t>When</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user should be able to view list of courses through drop down menu</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The corresponding course page should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>When</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The user hover mouse  on Courses Link</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Courses </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user clicks on any course icon</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All the  individual Course's icons should be displayed in home page</t>
+    </r>
+  </si>
+  <si>
+    <t>The user should be able to view the various courses offered by selecting/mouse hovering on this link</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">And </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user selects any of the Courses listed  from the drop down menu &lt;course&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t>Brief presentation of all Courses Offered by Transfotech Academy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user should be able to view a brief presentation of courses displayed under the section header - Courses We Offer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The user should be able to view the presentation of various courses displayed in Home Page and through clicking the link </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Explore all Courses</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The user clicks on Explore all Courses Link</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,6 +576,35 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,10 +630,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,170 +993,578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11:C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>31</v>
+      <c r="A1" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+      <c r="A2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>4</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>5</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
